--- a/tests/output/Algorytm Symulowanego wyżarzania/sa_memory_results.xlsx
+++ b/tests/output/Algorytm Symulowanego wyżarzania/sa_memory_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instancja problemu</t>
+          <t>Plik</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Średnie zużycie pamięci (MB)</t>
+          <t>Parametry</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Parametry</t>
+          <t>Temperatura początkowa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Współczynnik chłodzenia</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura końcowa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Liczba iteracji</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Aktualne zużycie pamięci [KB]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Szczytowe zużycie pamięci [KB]</t>
         </is>
       </c>
     </row>
@@ -456,43 +481,118 @@
           <t>data/280_1.txt</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.012136</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Temp: 10000, Cooling: 0.95, Iter: 50</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dobre</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99995</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6735.5390625</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6743.09765625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>data/2000_1.txt</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.082056</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Temp: 10000, Cooling: 0.95, Iter: 50</t>
-        </is>
+          <t>data/280_1.txt</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>słabe</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>252.40625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>268.2578125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>data/4461_1.txt</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.182808</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Temp: 10000, Cooling: 0.95, Iter: 50</t>
-        </is>
+          <t>data/50_1.txt</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dobre</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99995</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100.296875</v>
+      </c>
+      <c r="H4" t="n">
+        <v>112.109375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>data/50_1.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>słabe</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>76.5546875</v>
+      </c>
+      <c r="H5" t="n">
+        <v>113.1328125</v>
       </c>
     </row>
   </sheetData>
